--- a/Docs/Management/ProgressTracking.XLSX
+++ b/Docs/Management/ProgressTracking.XLSX
@@ -814,7 +814,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
